--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15421.16126856585</v>
+        <v>40519.78528513004</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9838539.76499437</v>
+        <v>10417451.42146188</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22087121.9415115</v>
+        <v>22002153.75219174</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4211218.085620287</v>
+        <v>4209783.131211441</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K11" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N11" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P11" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K12" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P13" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K14" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N14" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P14" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P16" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.97480228639999</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85.97480228639998</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>77.60291342766286</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>58.99876929881117</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M44" t="n">
-        <v>33.65816793912805</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N44" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>41.36599235998582</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>70.15441326031711</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.3423827029069</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>70.21392947460487</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>41.06252158333071</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.5283497406852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.47761536183195</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>70.6365977934563</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>60.18264937930154</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M46" t="n">
-        <v>60.16297057655852</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>50.7955347526062</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O46" t="n">
-        <v>67.4361694735309</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>76.9578092403323</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H11" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I11" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S11" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H12" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S12" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T12" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I13" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S13" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T13" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H14" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I14" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S14" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H15" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S15" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T15" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I16" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S16" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T16" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H17" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I17" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H18" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S18" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T19" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H20" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.94669922618534</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S21" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T21" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I22" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>57.83529218611378</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.08791033046782</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T22" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I23" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H24" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S24" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H26" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S27" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T27" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I28" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H30" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S30" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S31" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S33" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T33" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I34" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S36" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I37" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H39" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S39" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T39" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I40" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S42" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T42" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I43" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S43" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.1825902111655</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>328.0030935389889</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>167.2914106341195</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>79.50566485817191</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S44" t="n">
-        <v>183.494712897039</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1924047410046</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>106.4471622989392</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>68.761749468207</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>62.94669922618533</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S45" t="n">
-        <v>160.5508486671644</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T45" t="n">
-        <v>197.7490015828257</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7598506100387</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>140.3401468734729</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>57.83529218611377</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.08791033046781</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R46" t="n">
-        <v>154.7009843173077</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>215.2600989804104</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7987169418005</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2916224736848</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363751.0125505875</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363751.0125505875</v>
+        <v>363649.0043600992</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="D2" t="n">
         <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
-        <v>64985.55566641792</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="F2" t="n">
-        <v>64985.55566641792</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="G2" t="n">
-        <v>64985.55566641794</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="H2" t="n">
-        <v>64985.55566641794</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="I2" t="n">
-        <v>64985.55566641794</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="J2" t="n">
-        <v>64985.55566641792</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="K2" t="n">
-        <v>64985.55566641792</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="L2" t="n">
-        <v>64985.55566641792</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="M2" t="n">
-        <v>64985.55566641793</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="N2" t="n">
-        <v>64985.55566641794</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="O2" t="n">
-        <v>64985.55566641793</v>
+        <v>65754.53449505377</v>
       </c>
       <c r="P2" t="n">
-        <v>64985.55566641793</v>
+        <v>65873.28937659845</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223857.5139821999</v>
+        <v>256945.3264049829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4233.205454181119</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="F4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="G4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="H4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="I4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="J4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="K4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="L4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="M4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="N4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="O4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>15192.12306707271</v>
+        <v>10328.63406743434</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6074.278792600922</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-22876.85944685537</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685534</v>
+        <v>-22876.85944685535</v>
       </c>
       <c r="E6" t="n">
-        <v>-180138.3601754557</v>
+        <v>-209060.6029873104</v>
       </c>
       <c r="F6" t="n">
-        <v>43719.15380674429</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="G6" t="n">
-        <v>43719.1538067443</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="H6" t="n">
-        <v>43719.1538067443</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="I6" t="n">
-        <v>43719.1538067443</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="J6" t="n">
-        <v>43719.15380674429</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="K6" t="n">
-        <v>43719.15380674429</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="L6" t="n">
-        <v>43719.15380674429</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="M6" t="n">
-        <v>43719.1538067443</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="N6" t="n">
-        <v>43719.1538067443</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="O6" t="n">
-        <v>43719.1538067443</v>
+        <v>47884.72341767255</v>
       </c>
       <c r="P6" t="n">
-        <v>43719.1538067443</v>
+        <v>44200.69463763183</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="H3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="I3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="J3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="K3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="L3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="M3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="N3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="O3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>278.6366418624276</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.360213490542208</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H11" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K11" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N11" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P11" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>70.36345308297777</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S11" t="n">
-        <v>25.52535668920632</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T11" t="n">
-        <v>4.90344482312674</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K12" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L12" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I13" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>35.52388793055901</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K13" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P13" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S13" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T13" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H14" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K14" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N14" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P14" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>70.36345308297777</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S14" t="n">
-        <v>25.52535668920632</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T14" t="n">
-        <v>4.90344482312674</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K15" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L15" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I16" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>35.52388793055901</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P16" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S16" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T16" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H17" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N17" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P17" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L18" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S19" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T19" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H20" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07110224028629</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N20" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P20" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>5.788281937557224</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L21" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03942971347109827</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5024595181125744</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>35.523887930559</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.07413292122656</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S22" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T22" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H23" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N23" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P23" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L24" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S25" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T25" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H26" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N26" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P26" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L27" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S28" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T28" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H29" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N29" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P29" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L30" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S31" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T31" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H32" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N32" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P32" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L33" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S34" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T34" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H35" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N35" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P35" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L36" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S37" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T37" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H38" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N38" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P38" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L39" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S40" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T40" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H41" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N41" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P41" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L42" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S43" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T43" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.120147303969557</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>11.47170857677823</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>43.1844789362864</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>95.07110224028631</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>142.4869376173177</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>176.7676456711761</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>196.6880652881447</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N44" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>188.7322190617009</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>161.0785824949524</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.9633071715426</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>70.36345308297777</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>25.52535668920632</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>4.90344482312674</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>5.788281937557223</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>20.63488338320808</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>56.62369719206183</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>96.77891739102829</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>114.446057673645</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.50415872418957</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>37.2111349264578</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>11.1323224366734</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.415727111995952</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>4.467321897400891</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>15.11032805378542</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>35.52388793055901</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K46" t="n">
-        <v>58.37666037707908</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>74.70202690193675</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M46" t="n">
-        <v>78.76281337104653</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>76.89000971262699</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O46" t="n">
-        <v>71.02036897831189</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>60.77019480881533</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.07413292122657</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>22.59240705986175</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>8.756499056561861</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>2.146872486480999</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40519.78528513004</v>
+        <v>-83368.07553983922</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10417451.42146188</v>
+        <v>10411128.37205422</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22002153.75219174</v>
+        <v>22003233.34202397</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4209783.131211441</v>
+        <v>4209743.930150286</v>
       </c>
     </row>
     <row r="11">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
         <v>56.54227989916996</v>
@@ -8698,13 +8698,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
         <v>46.34579576917247</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
         <v>26.75787480980772</v>
@@ -8862,10 +8862,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
         <v>56.54227989916996</v>
@@ -8935,13 +8935,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
         <v>46.34579576917247</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
         <v>26.75787480980772</v>
@@ -9099,10 +9099,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>28.83625887535973</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947139259</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>47.43596908875769</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615368</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23439,7 +23439,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23676,7 +23676,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>65.24074378433592</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59722706556381</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T45" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I46" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77372115642321</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.90864702141808</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363649.0043600992</v>
+        <v>363581.1208057763</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>59129.07304229551</v>
+      </c>
+      <c r="C2" t="n">
         <v>59129.07304229552</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>59129.07304229551</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
         <v>65754.53449505377</v>
@@ -26355,7 +26355,7 @@
         <v>65754.53449505377</v>
       </c>
       <c r="P2" t="n">
-        <v>65873.28937659845</v>
+        <v>65754.53449505377</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4233.205454181119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>10328.63406743434</v>
+        <v>10897.70851412389</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685535</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="E6" t="n">
-        <v>-209060.6029873104</v>
+        <v>-223608.9622798216</v>
       </c>
       <c r="F6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="G6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="H6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="I6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="J6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="K6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="L6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="M6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="N6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="O6" t="n">
-        <v>47884.72341767255</v>
+        <v>33336.36412516126</v>
       </c>
       <c r="P6" t="n">
-        <v>44200.69463763183</v>
+        <v>33336.36412516126</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.360213490542208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31761,7 +31761,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
@@ -31785,13 +31785,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31840,7 +31840,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31870,7 +31870,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
         <v>0.04525771959877963</v>
@@ -31913,13 +31913,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
         <v>67.00516676073742</v>
@@ -31934,10 +31934,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
         <v>48.29300399320443</v>
@@ -31998,7 +31998,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
@@ -32022,13 +32022,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32077,7 +32077,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32107,7 +32107,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
         <v>0.04525771959877963</v>
@@ -32150,13 +32150,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
         <v>67.00516676073742</v>
@@ -32171,10 +32171,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
         <v>48.29300399320443</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H44" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278013</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>82.36982664182088</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88084173443167</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740137561929767</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.55834336411107</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024956</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>87.4487071924806</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907951</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83368.07553983922</v>
+        <v>27664.23093113817</v>
       </c>
     </row>
     <row r="7">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K11" t="n">
         <v>56.54227989916996</v>
@@ -8698,13 +8698,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P11" t="n">
         <v>46.34579576917247</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K12" t="n">
         <v>26.75787480980772</v>
@@ -8862,10 +8862,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K14" t="n">
         <v>56.54227989916996</v>
@@ -8935,13 +8935,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P14" t="n">
         <v>46.34579576917247</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
         <v>26.75787480980772</v>
@@ -9099,10 +9099,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K17" t="n">
         <v>56.54227989916996</v>
@@ -9172,13 +9172,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P17" t="n">
         <v>46.34579576917247</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K18" t="n">
         <v>26.75787480980772</v>
@@ -9336,10 +9336,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K23" t="n">
         <v>56.54227989916996</v>
@@ -9646,13 +9646,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P23" t="n">
         <v>46.34579576917247</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K24" t="n">
         <v>26.75787480980772</v>
@@ -9810,10 +9810,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L38" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23439,7 +23439,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23676,7 +23676,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23913,7 +23913,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24150,7 +24150,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R22" t="n">
         <v>151.3616578248528</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24387,7 +24387,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24624,7 +24624,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24861,7 +24861,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25098,7 +25098,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25335,7 +25335,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25572,7 +25572,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25809,7 +25809,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -26046,7 +26046,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R46" t="n">
         <v>151.3616578248528</v>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59129.07304229551</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
         <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
-        <v>59129.07304229551</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
         <v>65754.53449505377</v>
@@ -26331,31 +26331,31 @@
         <v>65754.53449505377</v>
       </c>
       <c r="H2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505375</v>
       </c>
       <c r="I2" t="n">
         <v>65754.53449505377</v>
       </c>
       <c r="J2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505375</v>
       </c>
       <c r="K2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505375</v>
       </c>
       <c r="L2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505374</v>
       </c>
       <c r="M2" t="n">
         <v>65754.53449505377</v>
       </c>
       <c r="N2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505375</v>
       </c>
       <c r="O2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505375</v>
       </c>
       <c r="P2" t="n">
-        <v>65754.53449505377</v>
+        <v>65754.53449505374</v>
       </c>
     </row>
     <row r="3">
@@ -26487,31 +26487,31 @@
         <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="I5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385883</v>
       </c>
       <c r="C6" t="n">
-        <v>-38027.53341689012</v>
+        <v>-24391.92684385883</v>
       </c>
       <c r="D6" t="n">
-        <v>-38027.53341689013</v>
+        <v>-24391.92684385883</v>
       </c>
       <c r="E6" t="n">
-        <v>-223608.9622798216</v>
+        <v>-210515.4389165615</v>
       </c>
       <c r="F6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="G6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="H6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="I6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="J6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="K6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="L6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842139</v>
       </c>
       <c r="M6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842142</v>
       </c>
       <c r="N6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="O6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842141</v>
       </c>
       <c r="P6" t="n">
-        <v>33336.36412516126</v>
+        <v>46429.88748842139</v>
       </c>
     </row>
   </sheetData>
@@ -31761,7 +31761,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
@@ -31785,13 +31785,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S11" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T11" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31840,7 +31840,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31870,7 +31870,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U12" t="n">
         <v>0.04525771959877963</v>
@@ -31913,13 +31913,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K13" t="n">
         <v>67.00516676073742</v>
@@ -31934,10 +31934,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q13" t="n">
         <v>48.29300399320443</v>
@@ -31998,7 +31998,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
@@ -32022,13 +32022,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32077,7 +32077,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32107,7 +32107,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
         <v>0.04525771959877963</v>
@@ -32150,13 +32150,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
         <v>67.00516676073742</v>
@@ -32171,10 +32171,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
         <v>48.29300399320443</v>
@@ -32235,7 +32235,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
@@ -32259,13 +32259,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32314,7 +32314,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32344,7 +32344,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U18" t="n">
         <v>0.04525771959877963</v>
@@ -32387,13 +32387,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K19" t="n">
         <v>67.00516676073742</v>
@@ -32408,10 +32408,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q19" t="n">
         <v>48.29300399320443</v>
@@ -32469,16 +32469,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32496,13 +32496,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32709,7 +32709,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
@@ -32733,13 +32733,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S23" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32788,7 +32788,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32818,7 +32818,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U24" t="n">
         <v>0.04525771959877963</v>
@@ -32861,13 +32861,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K25" t="n">
         <v>67.00516676073742</v>
@@ -32882,10 +32882,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q25" t="n">
         <v>48.29300399320443</v>
@@ -32943,16 +32943,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -32970,13 +32970,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33043,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,37 +33095,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33180,16 +33180,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33207,13 +33207,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33417,16 +33417,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33444,13 +33444,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33654,16 +33654,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33681,13 +33681,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33891,16 +33891,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33918,13 +33918,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34128,16 +34128,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34155,13 +34155,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34365,16 +34365,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34392,13 +34392,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S44" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,37 +34517,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>
